--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DAFB2-71DB-49BC-9706-3928E6427BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>TCName</t>
   </si>
@@ -52,13 +53,46 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Create Account with mandatory_fields_TC04</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Bank of India</t>
+  </si>
+  <si>
+    <t>Login With Theam_TC05</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>Potential_Name</t>
+  </si>
+  <si>
+    <t>Sales_Stave</t>
+  </si>
+  <si>
+    <t>Needs Analysis</t>
+  </si>
+  <si>
+    <t>Create potential with mandatory fields_TC06</t>
+  </si>
+  <si>
+    <t>CRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +103,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,10 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +172,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +256,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,19 +500,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,48 +529,103 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>12345</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -499,24 +635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DAFB2-71DB-49BC-9706-3928E6427BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711FC7F-C044-4D79-9035-D52C168664F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>TCName</t>
   </si>
@@ -86,13 +86,220 @@
   </si>
   <si>
     <t>CRM</t>
+  </si>
+  <si>
+    <t>Submit Question and Answer successfully_TC07</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>How can I reset my VTiger CRM password if I forget it?</t>
+  </si>
+  <si>
+    <t>To reset your VTiger CRM password, go to the login page and click on the "Forgot Password" link. Enter your registered email address and follow the instructions sent to your email.</t>
+  </si>
+  <si>
+    <t>Create a new Product with  details_TC08</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>PreviousYear</t>
+  </si>
+  <si>
+    <t>PreviousMonth</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>CRm</t>
+  </si>
+  <si>
+    <t>Product_Img</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Downloads\AdobeStock_737126271_Preview.jpeg</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>LexPon Inc.</t>
+  </si>
+  <si>
+    <t>ParentName</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Verify Ticket Information_TC09</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Small Problem</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ParentType</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Wait For Response</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>CRM application .</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>api/users?page=2</t>
+  </si>
+  <si>
+    <t>Status code</t>
+  </si>
+  <si>
+    <t>api/users/2</t>
+  </si>
+  <si>
+    <t>Single_User_API_Testing_TC02</t>
+  </si>
+  <si>
+    <t>List_Users_Testing_TC01</t>
+  </si>
+  <si>
+    <t>api/users</t>
+  </si>
+  <si>
+    <t>Create_User_TC03</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>Sima</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>createUser.json</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Update_User_TC04</t>
+  </si>
+  <si>
+    <t>updateUser.json</t>
+  </si>
+  <si>
+    <t>Add new task_TC11</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Date-start</t>
+  </si>
+  <si>
+    <t>Date-End</t>
+  </si>
+  <si>
+    <t>Create_Note_With_valid_credentials_TC12</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Susan Wilson</t>
+  </si>
+  <si>
+    <t>myName</t>
+  </si>
+  <si>
+    <t>Note_Contect</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Vtiger 50 Users Pack</t>
+  </si>
+  <si>
+    <t>PatentTypeValue</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Downloads\Pritam Gawade Resume.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +317,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,12 +379,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,19 +728,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="27" max="27" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,11 +767,84 @@
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -552,8 +854,10 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AA2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -563,8 +867,10 @@
       <c r="C3" s="3">
         <v>12345</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AA3" s="8"/>
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -580,8 +886,10 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AA4" s="8"/>
+      <c r="AC4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -594,8 +902,10 @@
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AA5" s="8"/>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -609,8 +919,10 @@
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AA6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -626,6 +938,148 @@
       </c>
       <c r="I7" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AC7" s="8"/>
+    </row>
+    <row r="8" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="N9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="U10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="AA11" s="8">
+        <v>44816</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="X12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -636,13 +1090,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
